--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T09:27:20+00:00</t>
+    <t>2024-02-13T15:25:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T15:25:30+00:00</t>
+    <t>2024-02-13T15:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T15:39:54+00:00</t>
+    <t>2024-02-13T16:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>« Bundle » de type « searchset » encapsulant une collection de 0, une ou plusieurs ressources « CareTeam » répondant aux critères de recherche. Les ressources référencées par les ressources CareTeam retournées sont aussi dans le Bundle s’il a été demandé de les inclure dans la requête GET.</t>
+    <t>Profil « Bundle » de type « searchset » encapsulant une collection de 0, une ou plusieurs ressources « CareTeam » répondant aux critères de recherche. Les ressources référencées par les ressources CareTeam retournées sont aussi dans le Bundle s’il a été demandé de les inclure dans la requête GET.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T16:36:27+00:00</t>
+    <t>2024-02-14T08:58:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:45:49+00:00</t>
+    <t>2024-02-15T16:51:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:51:34+00:00</t>
+    <t>2024-02-15T17:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T17:14:29+00:00</t>
+    <t>2024-02-16T10:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T10:53:34+00:00</t>
+    <t>2024-02-16T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T11:00:57+00:00</t>
+    <t>2024-02-16T16:08:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
